--- a/cmds/exceltool/excel/道具.xlsx
+++ b/cmds/exceltool/excel/道具.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="道具配置" sheetId="2" r:id="rId5"/>
+    <sheet name="道具" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -127,11 +128,11 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -448,148 +449,267 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="str">
+        <v>Cfg_PlayerBag</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>背包最大上限</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>MaxBagSize</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>i32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>none,unique</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>none</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" prompt="None=无规则" showErrorMessage="true" showInputMessage="true" sqref="A4 B4" type="list">
+      <formula1>"none,unique"</formula1>
+    </dataValidation>
+  </dataValidations>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>Item</v>
-      </c>
-      <c r="B1" s="1" t="str">
+      <c r="A1" s="2" t="str">
+        <v>Cfg_Item</v>
+      </c>
+      <c r="B1" s="2" t="str">
         <v>名字</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>描述</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>类型</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
+        <v>位置</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>不占用背包格子</v>
+      </c>
+      <c r="G1" s="2" t="str">
         <v>绑定类型</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <v>叠加类型</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="I1" s="2" t="str">
         <v>最大叠加数量</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>等级</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>品质</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>装备位置</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>图标</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Id</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>Desc</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>Types</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
+        <v>Pos</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <v>NotInBag</v>
+      </c>
+      <c r="G2" s="2" t="str">
         <v>BindType</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <v>StackType</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="I2" s="2" t="str">
         <v>StackSize</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="J2" s="2" t="str">
         <v>Level</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="K2" s="2" t="str">
         <v>Quality</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="L2" s="2" t="str">
         <v>EquipSlot</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="M2" s="2" t="str">
         <v>Icon</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>i</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>c</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>c</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>i</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>i</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>i</v>
-      </c>
-      <c r="G3" s="1" t="str">
+      <c r="A3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>str</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <v>str</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="I3" s="2" t="str">
         <v>i64</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <v>i</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <v>i</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>i</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v>c</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="J3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <v>i32</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <v>str</v>
+      </c>
+      <c r="N3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="2" t="str">
+        <v>none,unique</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <v>none</v>
+      </c>
+      <c r="N4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -611,21 +731,27 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>99999999999999</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="str">
         <v>金币</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -647,21 +773,27 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="str">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="str">
         <v>钻石</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
@@ -683,59 +815,74 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>9999999999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="str">
         <v>仙玉</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" prompt="1=可叠加，2=不可叠加" showErrorMessage="true" showInputMessage="true" sqref="F5:F7" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" errorStyle="stop" prompt="None=无规则" showErrorMessage="true" showInputMessage="true" sqref="E4 F4 G4 A4 B4 K4 L4 D4 M4 H4 J4 I4 C4" type="list">
+      <formula1>"none,unique"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" prompt="0=占用背包格子，1=不占用" showErrorMessage="true" showInputMessage="true" sqref="D5:D7 F5:F7" type="list">
+      <formula1>"1"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" prompt="1=可叠加，2=不可叠加" showErrorMessage="true" showInputMessage="true" sqref="H5:H7" type="list">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" prompt="1=货币" showErrorMessage="true" showInputMessage="true" sqref="D5:D7" type="list">
-      <formula1>"1"</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" prompt="1 //玩家身上 2 //背包内" showErrorMessage="true" showInputMessage="true" sqref="E5:E7" type="list">
+      <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>